--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1865338.211611389</v>
+        <v>-1867288.43743995</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>293.6567833418227</v>
+        <v>296.3893874315646</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>234.4970761400735</v>
+        <v>155.2114886365808</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>149.3994175462801</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>47.14123613948906</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>235.5000960026868</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,13 +1136,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>296.1453371854689</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>179.9001870840517</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>234.2559520454605</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>213.9154470216037</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>171.0102824921578</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>251.6893676654656</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>82.65680676724971</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>105.6571329437492</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1822,7 +1822,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>14.43828793424688</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,19 +2056,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>212.197972875795</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2242,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,19 +2287,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>81.68913743188251</v>
       </c>
       <c r="U22" t="n">
-        <v>85.35272948320822</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>21.60094118514494</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>19.50297516590164</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2570,10 +2570,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898755</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692856</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373699</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463138</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415219</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2770,16 +2770,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W28" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X28" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.4527632224531</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692856</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373699</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789448</v>
+        <v>80.78193823789589</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463138</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415219</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3007,16 +3007,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692856</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1464.687040303175</v>
+        <v>1498.518225097183</v>
       </c>
       <c r="C2" t="n">
-        <v>1095.724523362763</v>
+        <v>1129.555708156771</v>
       </c>
       <c r="D2" t="n">
-        <v>1095.724523362763</v>
+        <v>771.2900095500206</v>
       </c>
       <c r="E2" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4367,13 +4367,13 @@
         <v>2224.752638628377</v>
       </c>
       <c r="W2" t="n">
-        <v>2224.752638628377</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X2" t="n">
-        <v>1851.286880367297</v>
+        <v>1498.518225097183</v>
       </c>
       <c r="Y2" t="n">
-        <v>1851.286880367297</v>
+        <v>1498.518225097183</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4419,7 +4419,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U4" t="n">
-        <v>290.8087152951862</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>2540.369809567131</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>2250.95263953017</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1954.141365880777</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="C5" t="n">
-        <v>1954.141365880777</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>1085.223837020925</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>699.4355844226811</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4595,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W5" t="n">
-        <v>2340.741205944899</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X5" t="n">
-        <v>2340.741205944899</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="Y5" t="n">
-        <v>2340.741205944899</v>
+        <v>1443.489535627676</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,49 +4644,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4756,19 +4756,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>490.2500993552354</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>490.2500993552354</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.8329293182748</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1550.991915879943</v>
+        <v>1534.318342165211</v>
       </c>
       <c r="C8" t="n">
-        <v>1182.029398939532</v>
+        <v>1165.3558252248</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>807.0901266180492</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>807.0901266180492</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4844,10 +4844,10 @@
         <v>2311.057514205145</v>
       </c>
       <c r="X8" t="n">
-        <v>1937.591755944065</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="Y8" t="n">
-        <v>1937.591755944065</v>
+        <v>1920.918182229333</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610024</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610024</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610024</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5039,7 +5039,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5081,10 +5081,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>462.7283310300503</v>
+        <v>592.8217113586345</v>
       </c>
       <c r="L12" t="n">
-        <v>709.4934589365143</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M12" t="n">
-        <v>1016.813592216476</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880509</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>416.5712828402495</v>
+        <v>994.3109288932102</v>
       </c>
       <c r="C13" t="n">
-        <v>247.6350999123426</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123426</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5224,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1215.10350803674</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1215.10350803674</v>
       </c>
       <c r="U13" t="n">
-        <v>898.7925182488382</v>
+        <v>1215.10350803674</v>
       </c>
       <c r="V13" t="n">
-        <v>644.5608337382669</v>
+        <v>1215.10350803674</v>
       </c>
       <c r="W13" t="n">
-        <v>644.5608337382669</v>
+        <v>1215.10350803674</v>
       </c>
       <c r="X13" t="n">
-        <v>416.5712828402495</v>
+        <v>1215.10350803674</v>
       </c>
       <c r="Y13" t="n">
-        <v>416.5712828402495</v>
+        <v>994.3109288932102</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5270,16 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211721</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>966.6932390011339</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1296.555866665167</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>1966.019627967826</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>330.8254548799445</v>
+        <v>203.9414681711437</v>
       </c>
       <c r="C16" t="n">
-        <v>330.8254548799445</v>
+        <v>203.9414681711437</v>
       </c>
       <c r="D16" t="n">
-        <v>180.7088154676088</v>
+        <v>203.9414681711437</v>
       </c>
       <c r="E16" t="n">
-        <v>180.7088154676088</v>
+        <v>203.9414681711437</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>203.9414681711437</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5461,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>874.927113122792</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>620.2426249169051</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W16" t="n">
-        <v>330.8254548799445</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="X16" t="n">
-        <v>330.8254548799445</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="Y16" t="n">
-        <v>330.8254548799445</v>
+        <v>385.5899330013834</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,19 +5498,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
@@ -5540,22 +5540,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2649.889045452863</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>2896.654173359327</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>3203.974306639288</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>4008.385884903439</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>413.3055067228584</v>
+        <v>564.4843764226425</v>
       </c>
       <c r="C19" t="n">
-        <v>413.3055067228584</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="D19" t="n">
-        <v>413.3055067228584</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1484.33214133139</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1484.33214133139</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1484.33214133139</v>
       </c>
       <c r="U19" t="n">
-        <v>1098.712528333286</v>
+        <v>1484.33214133139</v>
       </c>
       <c r="V19" t="n">
-        <v>884.3711415900586</v>
+        <v>1484.33214133139</v>
       </c>
       <c r="W19" t="n">
-        <v>594.9539715530981</v>
+        <v>1194.91497129443</v>
       </c>
       <c r="X19" t="n">
-        <v>594.9539715530981</v>
+        <v>966.9254203964124</v>
       </c>
       <c r="Y19" t="n">
-        <v>594.9539715530981</v>
+        <v>746.1328412528823</v>
       </c>
     </row>
     <row r="20">
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,7 +5768,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5832,13 +5832,13 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M21" t="n">
-        <v>841.8631140141288</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
         <v>1528.62340110598</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>395.2468244550147</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C22" t="n">
-        <v>395.2468244550147</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5935,25 +5935,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247858</v>
+        <v>1305.326886885503</v>
       </c>
       <c r="U22" t="n">
-        <v>877.9208635589189</v>
+        <v>1016.198248099061</v>
       </c>
       <c r="V22" t="n">
-        <v>623.236375353032</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W22" t="n">
-        <v>623.236375353032</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X22" t="n">
-        <v>395.2468244550147</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y22" t="n">
-        <v>395.2468244550147</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5990,7 +5990,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,34 +6005,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6069,25 +6069,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>434.101493148623</v>
+        <v>604.14521039576</v>
       </c>
       <c r="C25" t="n">
-        <v>434.101493148623</v>
+        <v>435.2090274678532</v>
       </c>
       <c r="D25" t="n">
-        <v>412.2823606383756</v>
+        <v>285.0923880555174</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>285.0923880555174</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>285.0923880555174</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>116.917066375338</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V25" t="n">
-        <v>1133.156678913841</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W25" t="n">
-        <v>843.7395088768801</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X25" t="n">
-        <v>615.7499579788628</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="Y25" t="n">
-        <v>615.7499579788628</v>
+        <v>785.7936752259998</v>
       </c>
     </row>
     <row r="26">
@@ -6206,31 +6206,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6245,7 +6245,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N27" t="n">
-        <v>1725.969903867171</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>2005.509969085868</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G28" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H28" t="n">
         <v>139.9315917982973</v>
@@ -6382,13 +6382,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K28" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L28" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M28" t="n">
         <v>1048.866260860496</v>
@@ -6403,10 +6403,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q28" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R28" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S28" t="n">
         <v>1865.165908942116</v>
@@ -6418,13 +6418,13 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W28" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.26110100452</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y28" t="n">
         <v>772.288612901032</v>
@@ -6461,25 +6461,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1014.141587792752</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1321.461721072713</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1651.324348736746</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108323</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229664</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506717</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504503</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G31" t="n">
-        <v>221.529509210312</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
@@ -6619,13 +6619,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6640,10 +6640,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S31" t="n">
         <v>1865.165908942116</v>
@@ -6655,16 +6655,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.26110100452</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.288612901031</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,25 +6683,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,7 +6710,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6777,22 +6777,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>474.7746905116409</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>721.5398184181049</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1028.859951698067</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2317.834075963124</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
         <v>478.0475988506726</v>
@@ -6844,25 +6844,25 @@
         <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6889,16 +6889,16 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
         <v>772.2886129010317</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>138.7081686256435</v>
@@ -7023,16 +7023,16 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>841.863114014129</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108325</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229666</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504504</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103121</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982965</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
@@ -7099,7 +7099,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010311</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7199,10 +7199,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7254,22 +7254,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1296.555866665167</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1966.019627967826</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>2486.320249703573</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504506</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103122</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>2013.406634128704</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2292.946699347401</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2497.96918012961</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7546,13 +7546,13 @@
         <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7564,16 +7564,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7673,22 +7673,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7728,22 +7728,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>929.516333276596</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1236.836466556558</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982975</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7819,37 +7819,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
   </sheetData>
@@ -8067,10 +8067,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>176.7176547498455</v>
+        <v>182.0340742867944</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>148.2747143566553</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,16 +9252,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>283.6093329825488</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9480,16 +9480,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,19 +9726,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>223.6742649934481</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="N27" t="n">
-        <v>94.13752431970619</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10130,7 +10130,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>219.9778004203348</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,13 +10203,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>188.88569463024</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,13 +10437,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10671,19 +10671,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>360.5026862907255</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,13 +10914,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>39.88923345256724</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.12263706263073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>272.8719470256808</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22553,7 +22553,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>88.27358673043904</v>
+        <v>85.54098264069722</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22756,13 +22756,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>123.0546296441021</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>80.77993428828631</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>26.91052749144549</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0.4482756583624052</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.522998336592</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>62.76424125568154</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>60.83643551962834</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>95.52606446954591</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -23944,19 +23944,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>39.93967044803298</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,13 +24130,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24175,19 +24175,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>139.8584236265067</v>
       </c>
       <c r="U22" t="n">
-        <v>200.8846229153691</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>127.0145318330674</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>129.4108532016345</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.037392394209746e-12</v>
+        <v>-2.720046538017391e-13</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1324205.226052189</v>
+        <v>1324205.226052188</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1324205.226052189</v>
+        <v>1324205.226052188</v>
       </c>
     </row>
     <row r="9">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58099.54682262557</v>
+        <v>58099.54682262555</v>
       </c>
       <c r="C2" t="n">
+        <v>61578.13273982121</v>
+      </c>
+      <c r="D2" t="n">
         <v>61578.13273982122</v>
       </c>
-      <c r="D2" t="n">
-        <v>61578.13273982123</v>
-      </c>
       <c r="E2" t="n">
-        <v>58654.35896065631</v>
+        <v>58654.35896065629</v>
       </c>
       <c r="F2" t="n">
-        <v>58654.35896065627</v>
+        <v>58654.35896065629</v>
       </c>
       <c r="G2" t="n">
         <v>58654.3589606563</v>
       </c>
       <c r="H2" t="n">
-        <v>58654.3589606563</v>
+        <v>58654.35896065629</v>
       </c>
       <c r="I2" t="n">
-        <v>58654.35896065629</v>
+        <v>58654.35896065628</v>
       </c>
       <c r="J2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982124</v>
       </c>
       <c r="K2" t="n">
         <v>61578.13273982127</v>
       </c>
       <c r="L2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="M2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982127</v>
       </c>
       <c r="N2" t="n">
-        <v>61578.13273982129</v>
+        <v>61578.13273982127</v>
       </c>
       <c r="O2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982128</v>
+        <v>61578.13273982124</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>54505.51210371256</v>
+        <v>54505.51210371258</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130302.1274369503</v>
+        <v>130302.1274369502</v>
       </c>
       <c r="C4" t="n">
         <v>156774.9582512226</v>
@@ -26430,34 +26430,34 @@
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143912</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>37464.45686275956</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="K4" t="n">
+        <v>37464.45686275959</v>
+      </c>
+      <c r="L4" t="n">
+        <v>37464.45686275959</v>
+      </c>
+      <c r="M4" t="n">
         <v>37464.45686275957</v>
-      </c>
-      <c r="L4" t="n">
-        <v>37464.45686275956</v>
-      </c>
-      <c r="M4" t="n">
-        <v>37464.45686275958</v>
       </c>
       <c r="N4" t="n">
         <v>37464.45686275957</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275958</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26488,19 +26488,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-745029.5378922786</v>
+        <v>-745145.490756185</v>
       </c>
       <c r="C6" t="n">
         <v>-178055.9035748109</v>
       </c>
       <c r="D6" t="n">
-        <v>-178055.9035748108</v>
+        <v>-178055.9035748109</v>
       </c>
       <c r="E6" t="n">
-        <v>-573538.6730863954</v>
+        <v>-573636.1322123677</v>
       </c>
       <c r="F6" t="n">
-        <v>-48378.63660949946</v>
+        <v>-48476.09573547159</v>
       </c>
       <c r="G6" t="n">
-        <v>-48378.63660949942</v>
+        <v>-48476.09573547162</v>
       </c>
       <c r="H6" t="n">
-        <v>-48378.63660949937</v>
+        <v>-48476.09573547162</v>
       </c>
       <c r="I6" t="n">
-        <v>-48378.63660949943</v>
+        <v>-48476.09573547162</v>
       </c>
       <c r="J6" t="n">
-        <v>-304530.1612392691</v>
+        <v>-304530.1612392692</v>
       </c>
       <c r="K6" t="n">
-        <v>-73601.42994296367</v>
+        <v>-73601.4299429637</v>
       </c>
       <c r="L6" t="n">
-        <v>-73601.42994296369</v>
+        <v>-73601.42994296373</v>
       </c>
       <c r="M6" t="n">
-        <v>-208402.4451768009</v>
+        <v>-208402.4451768008</v>
       </c>
       <c r="N6" t="n">
-        <v>-73601.42994296367</v>
+        <v>-73601.4299429637</v>
       </c>
       <c r="O6" t="n">
         <v>-128106.9420466763</v>
       </c>
       <c r="P6" t="n">
-        <v>-73601.42994296367</v>
+        <v>-73601.42994296373</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26744,10 +26744,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="F3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26756,13 +26756,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26774,10 +26774,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27439,7 +27439,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27582,28 +27582,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>101.9804758139822</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>17.64056718375451</v>
+        <v>16.14622039896091</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>257.4766281954313</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>302.0997325779239</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>46.83478528866331</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27828,19 +27828,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>50.78177823929096</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,13 +27856,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>58.5377044352141</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>226.9758586576598</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,16 +28065,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>17.88169127836753</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>11.79420836743344</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28257,58 +28257,58 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
         <v>-9.426533627750662e-13</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34787,10 +34787,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>327.2930933377847</v>
+        <v>332.6095128747336</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>355.36812928818</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
@@ -35972,16 +35972,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>565.9730352236569</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,16 +36200,16 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>693.6972596887387</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>556.8688383914609</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N27" t="n">
-        <v>427.332097717719</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520613</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L28" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M28" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N28" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O28" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P28" t="n">
-        <v>246.5154907414413</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q28" t="n">
         <v>107.3575901015154</v>
@@ -36832,7 +36832,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36850,10 +36850,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>469.2355053763591</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520613</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414413</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>339.4611332181792</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
@@ -37157,13 +37157,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520614</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37391,19 +37391,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>693.6972596887384</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37622,7 +37622,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37634,13 +37634,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>560.0354988619143</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>127.9022662376414</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>10.73738595686865</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37798,10 +37798,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>116.1356698477048</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37950,13 +37950,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>522.129651981705</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38184,16 +38184,16 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
